--- a/Project Plan/Project Schedule.xlsx
+++ b/Project Plan/Project Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\workspace\SWE Project\Project Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\workspace\Fan-Controller-System\Project Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="67">
   <si>
     <t>NA</t>
   </si>
@@ -454,9 +454,6 @@
     <t>SRS</t>
   </si>
   <si>
-    <t>Yasser &amp; Hassan</t>
-  </si>
-  <si>
     <t>Kareem &amp; Tareek</t>
   </si>
   <si>
@@ -536,6 +533,9 @@
   </si>
   <si>
     <t>Not yet</t>
+  </si>
+  <si>
+    <t>Kareem</t>
   </si>
 </sst>
 </file>
@@ -544,9 +544,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="170" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -968,116 +968,116 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1389,8 +1389,8 @@
   </sheetPr>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1439,21 +1439,21 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="12.75">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:18" ht="12.75">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="52" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="50"/>
@@ -1461,10 +1461,10 @@
       <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:18" ht="12.75">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="49" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="50"/>
@@ -1475,16 +1475,16 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:18" ht="13.5" thickBot="1">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="56">
         <f ca="1">NOW()</f>
-        <v>42455.977034606483</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
+        <v>42458.756289699071</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1497,44 +1497,44 @@
       <c r="B8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="43" t="s">
+      <c r="K8" s="48"/>
+      <c r="L8" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43" t="s">
+      <c r="M8" s="59"/>
+      <c r="N8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="43"/>
-      <c r="P8" s="44" t="s">
+      <c r="O8" s="59"/>
+      <c r="P8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="45" t="s">
+      <c r="Q8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="46" t="s">
+      <c r="R8" s="44" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="P9" s="18">
         <f>SUM(P12,P18,P24,P32)/4</f>
-        <v>0.40833333333333333</v>
+        <v>0.46249999999999997</v>
       </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="15" t="s">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="8" customFormat="1" ht="15.75">
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="17">
         <v>7</v>
@@ -1728,7 +1728,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="17">
         <v>7</v>
@@ -1783,7 +1783,7 @@
         <v>1.2</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="17">
         <v>7</v>
@@ -1838,7 +1838,7 @@
         <v>1.3</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="17">
         <v>2</v>
@@ -1893,7 +1893,7 @@
         <v>1.4</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="17">
         <v>2</v>
@@ -1971,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="17">
         <v>7</v>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="P18" s="18">
         <f>AVERAGE(P19:P22)</f>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Q18" s="19">
         <v>1</v>
@@ -2102,11 +2102,11 @@
       <c r="H20" s="37">
         <v>42446</v>
       </c>
-      <c r="I20" s="37" t="s">
-        <v>0</v>
+      <c r="I20" s="37">
+        <v>42458</v>
       </c>
       <c r="J20" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>18</v>
@@ -2119,19 +2119,19 @@
       </c>
       <c r="N20" s="17">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P20" s="18">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="Q20" s="19">
         <v>2.1</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15">
@@ -2139,7 +2139,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="17">
         <v>2</v>
@@ -2159,11 +2159,11 @@
       <c r="H21" s="37">
         <v>42446</v>
       </c>
-      <c r="I21" s="37" t="s">
-        <v>0</v>
+      <c r="I21" s="37">
+        <v>42458</v>
       </c>
       <c r="J21" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>18</v>
@@ -2176,19 +2176,19 @@
       </c>
       <c r="N21" s="17">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O21" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P21" s="18">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="Q21" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15">
@@ -2208,7 +2208,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="37">
-        <v>42441</v>
+        <v>42458</v>
       </c>
       <c r="G22" s="37">
         <v>42448</v>
@@ -2245,7 +2245,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="8" customFormat="1" ht="15">
@@ -2273,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="17">
         <v>14</v>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="P24" s="23">
         <f>AVERAGE(P25:P30)</f>
-        <v>0.13333333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="15"/>
@@ -2327,7 +2327,7 @@
         <v>3.1</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="17">
         <v>4</v>
@@ -2347,8 +2347,8 @@
       <c r="H25" s="37">
         <v>42452</v>
       </c>
-      <c r="I25" s="37" t="s">
-        <v>0</v>
+      <c r="I25" s="37">
+        <v>42458</v>
       </c>
       <c r="J25" s="17">
         <v>4</v>
@@ -2370,7 +2370,7 @@
         <v>18</v>
       </c>
       <c r="P25" s="18">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="15" t="s">
@@ -2382,7 +2382,7 @@
         <v>3.2</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="17">
         <v>4</v>
@@ -2390,11 +2390,11 @@
       <c r="D26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="36" t="s">
-        <v>34</v>
+      <c r="E26" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F26" s="37">
-        <v>42452</v>
+        <v>42458</v>
       </c>
       <c r="G26" s="37">
         <v>42456</v>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15">
@@ -2437,7 +2437,7 @@
         <v>3.3</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="17">
         <v>1</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="Q28" s="19"/>
       <c r="R28" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15">
@@ -2547,7 +2547,7 @@
         <v>3.5</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="17">
         <v>1</v>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15">
@@ -2602,7 +2602,7 @@
         <v>3.6</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="17">
         <v>2</v>
@@ -2677,7 +2677,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="17">
         <v>7</v>
@@ -2686,7 +2686,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" s="37">
         <v>42462</v>
@@ -2731,7 +2731,7 @@
         <v>2.1</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="17">
         <v>1</v>
@@ -2740,7 +2740,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="37">
         <v>42462</v>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="Q33" s="19"/>
       <c r="R33" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15">
@@ -2786,7 +2786,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="17">
         <v>2</v>
@@ -2795,7 +2795,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F34" s="37">
         <v>42462</v>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="Q34" s="35"/>
       <c r="R34" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15">
@@ -2841,7 +2841,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="17">
         <v>2</v>
@@ -2850,7 +2850,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35" s="37">
         <v>42462</v>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15">
@@ -2896,7 +2896,7 @@
         <v>2.4</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="17">
         <v>2</v>
@@ -2905,7 +2905,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36" s="37">
         <v>42462</v>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="Q36" s="19"/>
       <c r="R36" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15">
@@ -2968,14 +2968,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>

--- a/Project Plan/Project Schedule.xlsx
+++ b/Project Plan/Project Schedule.xlsx
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="67">
   <si>
     <t>NA</t>
   </si>
@@ -457,9 +457,6 @@
     <t>Kareem &amp; Tareek</t>
   </si>
   <si>
-    <t>Mariam</t>
-  </si>
-  <si>
     <t>Project Management Plan</t>
   </si>
   <si>
@@ -478,9 +475,6 @@
     <t>Requirements &amp; Test Plans</t>
   </si>
   <si>
-    <t>Mariam &amp; Hoda</t>
-  </si>
-  <si>
     <t>2.1 &amp; 2.2</t>
   </si>
   <si>
@@ -511,9 +505,6 @@
     <t>Tarek &amp; Hassan</t>
   </si>
   <si>
-    <t>Hoda</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -536,6 +527,15 @@
   </si>
   <si>
     <t>Kareem</t>
+  </si>
+  <si>
+    <t>Mariam &amp; Hoda &amp; Yasser</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Tareek</t>
   </si>
 </sst>
 </file>
@@ -1389,8 +1389,9 @@
   </sheetPr>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1403,13 +1404,13 @@
     <col min="6" max="9" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.140625" style="3" customWidth="1"/>
     <col min="16" max="16" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -1480,7 +1481,7 @@
       </c>
       <c r="C6" s="56">
         <f ca="1">NOW()</f>
-        <v>42458.756289699071</v>
+        <v>42458.874309606479</v>
       </c>
       <c r="D6" s="57"/>
       <c r="E6" s="57"/>
@@ -1587,7 +1588,7 @@
       </c>
       <c r="P9" s="18">
         <f>SUM(P12,P18,P24,P32)/4</f>
-        <v>0.46249999999999997</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="15" t="s">
@@ -1646,7 +1647,7 @@
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="8" customFormat="1" ht="15.75">
@@ -1674,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="17">
         <v>7</v>
@@ -1704,14 +1705,15 @@
         <v>18</v>
       </c>
       <c r="L12" s="17">
-        <v>12</v>
+        <f>SUM(L13:L16)</f>
+        <v>14</v>
       </c>
       <c r="M12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" ref="N12:N22" si="0">J12-L12</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O12" s="17" t="s">
         <v>18</v>
@@ -1728,7 +1730,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="17">
         <v>7</v>
@@ -1783,7 +1785,7 @@
         <v>1.2</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="17">
         <v>7</v>
@@ -1838,7 +1840,7 @@
         <v>1.3</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="17">
         <v>2</v>
@@ -1893,7 +1895,7 @@
         <v>1.4</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="17">
         <v>2</v>
@@ -1971,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="17">
         <v>7</v>
@@ -2001,14 +2003,15 @@
         <v>18</v>
       </c>
       <c r="L18" s="17">
-        <v>12</v>
+        <f>SUM(L19:L22)</f>
+        <v>14</v>
       </c>
       <c r="M18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O18" s="17" t="s">
         <v>18</v>
@@ -2112,14 +2115,14 @@
         <v>18</v>
       </c>
       <c r="L20" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M20" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N20" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O20" s="17" t="s">
         <v>18</v>
@@ -2139,7 +2142,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="17">
         <v>2</v>
@@ -2160,6 +2163,7 @@
         <v>42446</v>
       </c>
       <c r="I21" s="37">
+        <f>I20</f>
         <v>42458</v>
       </c>
       <c r="J21" s="17">
@@ -2185,10 +2189,10 @@
         <v>0.9</v>
       </c>
       <c r="Q21" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15">
@@ -2208,13 +2212,14 @@
         <v>24</v>
       </c>
       <c r="F22" s="37">
+        <v>42447</v>
+      </c>
+      <c r="G22" s="37">
+        <f>I20</f>
         <v>42458</v>
       </c>
-      <c r="G22" s="37">
-        <v>42448</v>
-      </c>
       <c r="H22" s="37">
-        <v>42447</v>
+        <v>42449</v>
       </c>
       <c r="I22" s="37" t="s">
         <v>0</v>
@@ -2245,7 +2250,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="8" customFormat="1" ht="15">
@@ -2273,7 +2278,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="17">
         <v>14</v>
@@ -2303,23 +2308,26 @@
         <v>18</v>
       </c>
       <c r="L24" s="17">
-        <v>0</v>
+        <f>SUM(L25:L30)</f>
+        <v>6</v>
       </c>
       <c r="M24" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" ref="N24:N36" si="1">J24-L24</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O24" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P24" s="23">
         <f>AVERAGE(P25:P30)</f>
-        <v>0.15</v>
-      </c>
-      <c r="Q24" s="19"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>2</v>
+      </c>
       <c r="R24" s="15"/>
     </row>
     <row r="25" spans="1:18" ht="15">
@@ -2327,7 +2335,7 @@
         <v>3.1</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="17">
         <v>4</v>
@@ -2348,7 +2356,7 @@
         <v>42452</v>
       </c>
       <c r="I25" s="37">
-        <v>42458</v>
+        <v>42453</v>
       </c>
       <c r="J25" s="17">
         <v>4</v>
@@ -2357,14 +2365,14 @@
         <v>18</v>
       </c>
       <c r="L25" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N25" s="17">
         <f>J25-L25</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="17" t="s">
         <v>18</v>
@@ -2382,7 +2390,7 @@
         <v>3.2</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" s="17">
         <v>4</v>
@@ -2394,16 +2402,19 @@
         <v>24</v>
       </c>
       <c r="F26" s="37">
-        <v>42458</v>
+        <f>H25</f>
+        <v>42452</v>
       </c>
       <c r="G26" s="37">
-        <v>42456</v>
+        <f>I25</f>
+        <v>42453</v>
       </c>
       <c r="H26" s="37">
         <v>42456</v>
       </c>
-      <c r="I26" s="37" t="s">
-        <v>0</v>
+      <c r="I26" s="37" t="str">
+        <f>G27</f>
+        <v>NA</v>
       </c>
       <c r="J26" s="17">
         <v>6</v>
@@ -2425,11 +2436,13 @@
         <v>18</v>
       </c>
       <c r="P26" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="19"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>3.1</v>
+      </c>
       <c r="R26" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15">
@@ -2437,7 +2450,7 @@
         <v>3.3</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="17">
         <v>1</v>
@@ -2482,9 +2495,11 @@
       <c r="P27" s="18">
         <v>0</v>
       </c>
-      <c r="Q27" s="19"/>
+      <c r="Q27" s="19">
+        <v>3.2</v>
+      </c>
       <c r="R27" s="15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15">
@@ -2506,8 +2521,9 @@
       <c r="F28" s="37">
         <v>42456</v>
       </c>
-      <c r="G28" s="37" t="s">
-        <v>0</v>
+      <c r="G28" s="37" t="str">
+        <f>I26</f>
+        <v>NA</v>
       </c>
       <c r="H28" s="37">
         <v>42458</v>
@@ -2537,9 +2553,11 @@
       <c r="P28" s="18">
         <v>0</v>
       </c>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="19">
+        <v>3.2</v>
+      </c>
       <c r="R28" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15">
@@ -2547,7 +2565,7 @@
         <v>3.5</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="17">
         <v>1</v>
@@ -2594,7 +2612,7 @@
       </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="15" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15">
@@ -2602,7 +2620,7 @@
         <v>3.6</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" s="17">
         <v>2</v>
@@ -2611,19 +2629,19 @@
         <v>8</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F30" s="37">
         <v>42455</v>
       </c>
-      <c r="G30" s="37" t="s">
-        <v>0</v>
+      <c r="G30" s="37">
+        <v>42455</v>
       </c>
       <c r="H30" s="37">
         <v>42455</v>
       </c>
-      <c r="I30" s="37" t="s">
-        <v>0</v>
+      <c r="I30" s="37">
+        <v>42455</v>
       </c>
       <c r="J30" s="17">
         <v>2</v>
@@ -2632,24 +2650,24 @@
         <v>18</v>
       </c>
       <c r="L30" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M30" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N30" s="17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O30" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P30" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="15" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="15">
@@ -2677,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C32" s="17">
         <v>7</v>
@@ -2686,7 +2704,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F32" s="37">
         <v>42462</v>
@@ -2731,7 +2749,7 @@
         <v>2.1</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C33" s="17">
         <v>1</v>
@@ -2740,7 +2758,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F33" s="37">
         <v>42462</v>
@@ -2778,7 +2796,7 @@
       </c>
       <c r="Q33" s="19"/>
       <c r="R33" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15">
@@ -2786,7 +2804,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" s="17">
         <v>2</v>
@@ -2795,7 +2813,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F34" s="37">
         <v>42462</v>
@@ -2833,7 +2851,7 @@
       </c>
       <c r="Q34" s="35"/>
       <c r="R34" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15">
@@ -2841,7 +2859,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" s="17">
         <v>2</v>
@@ -2850,7 +2868,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F35" s="37">
         <v>42462</v>
@@ -2888,7 +2906,7 @@
       </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15">
@@ -2896,7 +2914,7 @@
         <v>2.4</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C36" s="17">
         <v>2</v>
@@ -2905,7 +2923,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F36" s="37">
         <v>42462</v>
@@ -2943,7 +2961,7 @@
       </c>
       <c r="Q36" s="19"/>
       <c r="R36" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15">

--- a/Project Plan/Project Schedule.xlsx
+++ b/Project Plan/Project Schedule.xlsx
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="69">
   <si>
     <t>NA</t>
   </si>
@@ -454,9 +454,6 @@
     <t>SRS</t>
   </si>
   <si>
-    <t>Kareem &amp; Tareek</t>
-  </si>
-  <si>
     <t>Project Management Plan</t>
   </si>
   <si>
@@ -499,9 +496,6 @@
     <t>Update RTM with Code</t>
   </si>
   <si>
-    <t>All team</t>
-  </si>
-  <si>
     <t>Tarek &amp; Hassan</t>
   </si>
   <si>
@@ -529,13 +523,25 @@
     <t>Kareem</t>
   </si>
   <si>
-    <t>Mariam &amp; Hoda &amp; Yasser</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
     <t>Tareek</t>
+  </si>
+  <si>
+    <t>Kareem &amp; Hassan then Kareem &amp; Tarek</t>
+  </si>
+  <si>
+    <t>Kareem &amp; Hassan then Kareem</t>
+  </si>
+  <si>
+    <t>Mariam</t>
+  </si>
+  <si>
+    <t>Mariam &amp; Hoda &amp; Hassan</t>
+  </si>
+  <si>
+    <t>Tareek &amp; Yasser</t>
   </si>
 </sst>
 </file>
@@ -1044,6 +1050,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1075,9 +1084,6 @@
     </xf>
     <xf numFmtId="167" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1390,8 +1396,8 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R30" sqref="R30"/>
+      <pane ySplit="8" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1404,13 +1410,13 @@
     <col min="6" max="9" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.140625" style="3" customWidth="1"/>
     <col min="16" max="16" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -1443,34 +1449,34 @@
       <c r="B3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:18" ht="12.75">
       <c r="B4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:18" ht="12.75">
       <c r="B5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1479,13 +1485,13 @@
       <c r="B6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="57">
         <f ca="1">NOW()</f>
-        <v>42458.874309606479</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
+        <v>42461.626013425928</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1498,10 +1504,10 @@
       <c r="B8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="40" t="s">
         <v>23</v>
       </c>
@@ -1517,18 +1523,18 @@
       <c r="I8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="59" t="s">
+      <c r="K8" s="49"/>
+      <c r="L8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59" t="s">
+      <c r="M8" s="48"/>
+      <c r="N8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="59"/>
+      <c r="O8" s="48"/>
       <c r="P8" s="42" t="s">
         <v>15</v>
       </c>
@@ -1574,21 +1580,21 @@
         <v>18</v>
       </c>
       <c r="L9" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N9" s="17">
         <f>J9-L9</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P9" s="18">
         <f>SUM(P12,P18,P24,P32)/4</f>
-        <v>0.5083333333333333</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="15" t="s">
@@ -1647,7 +1653,7 @@
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="8" customFormat="1" ht="15.75">
@@ -1675,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="17">
         <v>7</v>
@@ -1730,7 +1736,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="17">
         <v>7</v>
@@ -1785,7 +1791,7 @@
         <v>1.2</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="17">
         <v>7</v>
@@ -1840,7 +1846,7 @@
         <v>1.3</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="17">
         <v>2</v>
@@ -1895,7 +1901,7 @@
         <v>1.4</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="17">
         <v>2</v>
@@ -1973,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="17">
         <v>7</v>
@@ -2004,21 +2010,21 @@
       </c>
       <c r="L18" s="17">
         <f>SUM(L19:L22)</f>
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="M18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-3.5</v>
       </c>
       <c r="O18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P18" s="18">
         <f>AVERAGE(P19:P22)</f>
-        <v>0.7</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="Q18" s="19">
         <v>1</v>
@@ -2134,7 +2140,7 @@
         <v>2.1</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15">
@@ -2142,7 +2148,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="17">
         <v>2</v>
@@ -2189,10 +2195,10 @@
         <v>0.9</v>
       </c>
       <c r="Q21" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15">
@@ -2221,8 +2227,8 @@
       <c r="H22" s="37">
         <v>42449</v>
       </c>
-      <c r="I22" s="37" t="s">
-        <v>0</v>
+      <c r="I22" s="37">
+        <v>42461</v>
       </c>
       <c r="J22" s="17">
         <v>2</v>
@@ -2231,26 +2237,26 @@
         <v>18</v>
       </c>
       <c r="L22" s="17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M22" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N22" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="O22" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P22" s="18">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q22" s="19">
         <v>2.2000000000000002</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="8" customFormat="1" ht="15">
@@ -2278,7 +2284,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="17">
         <v>14</v>
@@ -2309,21 +2315,21 @@
       </c>
       <c r="L24" s="17">
         <f>SUM(L25:L30)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M24" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" ref="N24:N36" si="1">J24-L24</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O24" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P24" s="23">
         <f>AVERAGE(P25:P30)</f>
-        <v>0.33333333333333331</v>
+        <v>0.45</v>
       </c>
       <c r="Q24" s="19">
         <v>2</v>
@@ -2335,7 +2341,7 @@
         <v>3.1</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="17">
         <v>4</v>
@@ -2390,7 +2396,7 @@
         <v>3.2</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="17">
         <v>4</v>
@@ -2412,9 +2418,8 @@
       <c r="H26" s="37">
         <v>42456</v>
       </c>
-      <c r="I26" s="37" t="str">
-        <f>G27</f>
-        <v>NA</v>
+      <c r="I26" s="37" t="s">
+        <v>0</v>
       </c>
       <c r="J26" s="17">
         <v>6</v>
@@ -2423,26 +2428,26 @@
         <v>18</v>
       </c>
       <c r="L26" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N26" s="17">
         <f t="shared" ref="N26:N30" si="2">J26-L26</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O26" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P26" s="18">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Q26" s="19">
         <v>3.1</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15">
@@ -2450,7 +2455,7 @@
         <v>3.3</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="17">
         <v>1</v>
@@ -2464,8 +2469,9 @@
       <c r="F27" s="37">
         <v>42456</v>
       </c>
-      <c r="G27" s="37" t="s">
-        <v>0</v>
+      <c r="G27" s="37" t="str">
+        <f>I26</f>
+        <v>NA</v>
       </c>
       <c r="H27" s="37">
         <v>42456</v>
@@ -2499,7 +2505,7 @@
         <v>3.2</v>
       </c>
       <c r="R27" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15">
@@ -2521,9 +2527,9 @@
       <c r="F28" s="37">
         <v>42456</v>
       </c>
-      <c r="G28" s="37" t="str">
-        <f>I26</f>
-        <v>NA</v>
+      <c r="G28" s="37">
+        <f>I25</f>
+        <v>42453</v>
       </c>
       <c r="H28" s="37">
         <v>42458</v>
@@ -2538,26 +2544,26 @@
         <v>18</v>
       </c>
       <c r="L28" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N28" s="17">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O28" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P28" s="18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q28" s="19">
         <v>3.2</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15">
@@ -2565,7 +2571,7 @@
         <v>3.5</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="17">
         <v>1</v>
@@ -2610,9 +2616,11 @@
       <c r="P29" s="18">
         <v>0</v>
       </c>
-      <c r="Q29" s="19"/>
+      <c r="Q29" s="19">
+        <v>3.4</v>
+      </c>
       <c r="R29" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15">
@@ -2620,7 +2628,7 @@
         <v>3.6</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="17">
         <v>2</v>
@@ -2629,7 +2637,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F30" s="37">
         <v>42455</v>
@@ -2667,7 +2675,7 @@
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="15">
@@ -2695,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" s="17">
         <v>7</v>
@@ -2704,7 +2712,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F32" s="37">
         <v>42462</v>
@@ -2749,7 +2757,7 @@
         <v>2.1</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C33" s="17">
         <v>1</v>
@@ -2758,7 +2766,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F33" s="37">
         <v>42462</v>
@@ -2796,7 +2804,7 @@
       </c>
       <c r="Q33" s="19"/>
       <c r="R33" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15">
@@ -2804,7 +2812,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="17">
         <v>2</v>
@@ -2813,7 +2821,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F34" s="37">
         <v>42462</v>
@@ -2851,7 +2859,7 @@
       </c>
       <c r="Q34" s="35"/>
       <c r="R34" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15">
@@ -2859,7 +2867,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" s="17">
         <v>2</v>
@@ -2868,7 +2876,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F35" s="37">
         <v>42462</v>
@@ -2906,7 +2914,7 @@
       </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15">
@@ -2914,7 +2922,7 @@
         <v>2.4</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C36" s="17">
         <v>2</v>
@@ -2923,7 +2931,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F36" s="37">
         <v>42462</v>
@@ -2961,7 +2969,7 @@
       </c>
       <c r="Q36" s="19"/>
       <c r="R36" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15">
@@ -2986,14 +2994,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>

--- a/Project Plan/Project Schedule.xlsx
+++ b/Project Plan/Project Schedule.xlsx
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="68">
   <si>
     <t>NA</t>
   </si>
@@ -437,9 +437,6 @@
   </si>
   <si>
     <t>CRS-SIQ</t>
-  </si>
-  <si>
-    <t>Postponed</t>
   </si>
   <si>
     <t>Yasser &amp; Mariam</t>
@@ -1049,6 +1046,33 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1056,33 +1080,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1396,8 +1393,8 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
+      <pane ySplit="8" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1449,34 +1446,34 @@
       <c r="B3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:18" ht="12.75">
       <c r="B4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:18" ht="12.75">
       <c r="B5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1485,13 +1482,13 @@
       <c r="B6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="54">
         <f ca="1">NOW()</f>
-        <v>42461.626013425928</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
+        <v>42462.01800625</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1504,10 +1501,10 @@
       <c r="B8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="40" t="s">
         <v>23</v>
       </c>
@@ -1523,18 +1520,18 @@
       <c r="I8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="49"/>
-      <c r="L8" s="48" t="s">
+      <c r="K8" s="58"/>
+      <c r="L8" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48" t="s">
+      <c r="M8" s="57"/>
+      <c r="N8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="48"/>
+      <c r="O8" s="57"/>
       <c r="P8" s="42" t="s">
         <v>15</v>
       </c>
@@ -1550,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="17">
         <v>35</v>
@@ -1594,7 +1591,7 @@
       </c>
       <c r="P9" s="18">
         <f>SUM(P12,P18,P24,P32)/4</f>
-        <v>0.58750000000000002</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="15" t="s">
@@ -1606,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="17">
         <v>28</v>
@@ -1653,7 +1650,7 @@
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="8" customFormat="1" ht="15.75">
@@ -1681,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="17">
         <v>7</v>
@@ -1736,7 +1733,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="17">
         <v>7</v>
@@ -1791,7 +1788,7 @@
         <v>1.2</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="17">
         <v>7</v>
@@ -1846,7 +1843,7 @@
         <v>1.3</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="17">
         <v>2</v>
@@ -1901,7 +1898,7 @@
         <v>1.4</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="17">
         <v>2</v>
@@ -1979,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="17">
         <v>7</v>
@@ -2010,21 +2007,21 @@
       </c>
       <c r="L18" s="17">
         <f>SUM(L19:L22)</f>
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="M18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="0"/>
-        <v>-3.5</v>
+        <v>-4</v>
       </c>
       <c r="O18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P18" s="18">
         <f>AVERAGE(P19:P22)</f>
-        <v>0.89999999999999991</v>
+        <v>0.92499999999999993</v>
       </c>
       <c r="Q18" s="19">
         <v>1</v>
@@ -2083,7 +2080,7 @@
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15">
@@ -2091,7 +2088,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="17">
         <v>2</v>
@@ -2140,7 +2137,7 @@
         <v>2.1</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15">
@@ -2148,7 +2145,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="17">
         <v>2</v>
@@ -2195,10 +2192,10 @@
         <v>0.9</v>
       </c>
       <c r="Q21" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15">
@@ -2237,26 +2234,26 @@
         <v>18</v>
       </c>
       <c r="L22" s="17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M22" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N22" s="17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O22" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P22" s="18">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q22" s="19">
         <v>2.2000000000000002</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="8" customFormat="1" ht="15">
@@ -2284,7 +2281,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="17">
         <v>14</v>
@@ -2315,21 +2312,21 @@
       </c>
       <c r="L24" s="17">
         <f>SUM(L25:L30)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M24" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" ref="N24:N36" si="1">J24-L24</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O24" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P24" s="23">
         <f>AVERAGE(P25:P30)</f>
-        <v>0.45</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="Q24" s="19">
         <v>2</v>
@@ -2341,7 +2338,7 @@
         <v>3.1</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="17">
         <v>4</v>
@@ -2396,7 +2393,7 @@
         <v>3.2</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="17">
         <v>4</v>
@@ -2418,8 +2415,8 @@
       <c r="H26" s="37">
         <v>42456</v>
       </c>
-      <c r="I26" s="37" t="s">
-        <v>0</v>
+      <c r="I26" s="37">
+        <v>42462</v>
       </c>
       <c r="J26" s="17">
         <v>6</v>
@@ -2428,26 +2425,26 @@
         <v>18</v>
       </c>
       <c r="L26" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M26" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N26" s="17">
         <f t="shared" ref="N26:N30" si="2">J26-L26</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O26" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P26" s="18">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Q26" s="19">
         <v>3.1</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15">
@@ -2455,7 +2452,7 @@
         <v>3.3</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="17">
         <v>1</v>
@@ -2463,21 +2460,21 @@
       <c r="D27" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="36" t="s">
-        <v>34</v>
+      <c r="E27" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F27" s="37">
         <v>42456</v>
       </c>
-      <c r="G27" s="37" t="str">
+      <c r="G27" s="37">
         <f>I26</f>
-        <v>NA</v>
+        <v>42462</v>
       </c>
       <c r="H27" s="37">
         <v>42456</v>
       </c>
-      <c r="I27" s="37" t="s">
-        <v>0</v>
+      <c r="I27" s="37">
+        <v>42461</v>
       </c>
       <c r="J27" s="17">
         <v>2</v>
@@ -2486,26 +2483,26 @@
         <v>18</v>
       </c>
       <c r="L27" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N27" s="17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P27" s="18">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Q27" s="19">
         <v>3.2</v>
       </c>
       <c r="R27" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15">
@@ -2521,8 +2518,8 @@
       <c r="D28" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="36" t="s">
-        <v>34</v>
+      <c r="E28" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F28" s="37">
         <v>42456</v>
@@ -2534,8 +2531,8 @@
       <c r="H28" s="37">
         <v>42458</v>
       </c>
-      <c r="I28" s="37" t="s">
-        <v>0</v>
+      <c r="I28" s="37">
+        <v>42461</v>
       </c>
       <c r="J28" s="17">
         <v>6</v>
@@ -2544,26 +2541,26 @@
         <v>18</v>
       </c>
       <c r="L28" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M28" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N28" s="17">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O28" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P28" s="18">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q28" s="19">
         <v>3.2</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15">
@@ -2571,7 +2568,7 @@
         <v>3.5</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="17">
         <v>1</v>
@@ -2579,14 +2576,15 @@
       <c r="D29" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="36" t="s">
-        <v>34</v>
+      <c r="E29" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F29" s="37">
         <v>42458</v>
       </c>
-      <c r="G29" s="37" t="s">
-        <v>0</v>
+      <c r="G29" s="37">
+        <f>I28</f>
+        <v>42461</v>
       </c>
       <c r="H29" s="37">
         <v>42458</v>
@@ -2601,26 +2599,26 @@
         <v>18</v>
       </c>
       <c r="L29" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N29" s="17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P29" s="18">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Q29" s="19">
         <v>3.4</v>
       </c>
       <c r="R29" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15">
@@ -2628,7 +2626,7 @@
         <v>3.6</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="17">
         <v>2</v>
@@ -2637,7 +2635,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F30" s="37">
         <v>42455</v>
@@ -2675,7 +2673,7 @@
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="15">
@@ -2703,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="17">
         <v>7</v>
@@ -2712,7 +2710,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32" s="37">
         <v>42462</v>
@@ -2757,7 +2755,7 @@
         <v>2.1</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="17">
         <v>1</v>
@@ -2766,7 +2764,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="37">
         <v>42462</v>
@@ -2804,7 +2802,7 @@
       </c>
       <c r="Q33" s="19"/>
       <c r="R33" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15">
@@ -2812,7 +2810,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="17">
         <v>2</v>
@@ -2821,7 +2819,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" s="37">
         <v>42462</v>
@@ -2859,7 +2857,7 @@
       </c>
       <c r="Q34" s="35"/>
       <c r="R34" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15">
@@ -2867,7 +2865,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="17">
         <v>2</v>
@@ -2876,7 +2874,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" s="37">
         <v>42462</v>
@@ -2914,7 +2912,7 @@
       </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15">
@@ -2922,7 +2920,7 @@
         <v>2.4</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="17">
         <v>2</v>
@@ -2931,7 +2929,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F36" s="37">
         <v>42462</v>
@@ -2969,7 +2967,7 @@
       </c>
       <c r="Q36" s="19"/>
       <c r="R36" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15">

--- a/Project Plan/Project Schedule.xlsx
+++ b/Project Plan/Project Schedule.xlsx
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="68">
   <si>
     <t>NA</t>
   </si>
@@ -1393,8 +1393,8 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="C6" s="54">
         <f ca="1">NOW()</f>
-        <v>42462.01800625</v>
+        <v>42462.368804861107</v>
       </c>
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P9" s="18">
         <f>SUM(P12,P18,P24,P32)/4</f>
-        <v>0.69374999999999998</v>
+        <v>0.70624999999999993</v>
       </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="15" t="s">
@@ -1633,20 +1633,20 @@
         <v>18</v>
       </c>
       <c r="L10" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M10" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N10" s="17">
         <f>J10-L10</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O10" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P10" s="18">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="15" t="s">
@@ -2305,6 +2305,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="17">
+        <f>SUM(J25:J30)+2</f>
         <v>24</v>
       </c>
       <c r="K24" s="17" t="s">
@@ -2312,21 +2313,21 @@
       </c>
       <c r="L24" s="17">
         <f>SUM(L25:L30)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M24" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" ref="N24:N36" si="1">J24-L24</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O24" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P24" s="23">
         <f>AVERAGE(P25:P30)</f>
-        <v>0.85000000000000009</v>
+        <v>0.9</v>
       </c>
       <c r="Q24" s="19">
         <v>2</v>
@@ -2438,7 +2439,7 @@
         <v>18</v>
       </c>
       <c r="P26" s="18">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q26" s="19">
         <v>3.1</v>
@@ -2589,8 +2590,8 @@
       <c r="H29" s="37">
         <v>42458</v>
       </c>
-      <c r="I29" s="37" t="s">
-        <v>0</v>
+      <c r="I29" s="37">
+        <v>42462</v>
       </c>
       <c r="J29" s="17">
         <v>2</v>
@@ -2599,20 +2600,20 @@
         <v>18</v>
       </c>
       <c r="L29" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N29" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="17" t="s">
         <v>18</v>
       </c>
       <c r="P29" s="18">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="Q29" s="19">
         <v>3.4</v>

--- a/Project Plan/Project Schedule.xlsx
+++ b/Project Plan/Project Schedule.xlsx
@@ -240,29 +240,6 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">Remaining Work
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The amount of time still required to complete a task.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
           <t xml:space="preserve">% Complete
 </t>
         </r>
@@ -277,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="0" shapeId="0">
+    <comment ref="O8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="0" shapeId="0">
+    <comment ref="P8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="73">
   <si>
     <t>NA</t>
   </si>
@@ -377,10 +354,6 @@
 Work</t>
   </si>
   <si>
-    <t>Remaining
-Work</t>
-  </si>
-  <si>
     <t>%
 Complete</t>
   </si>
@@ -499,24 +472,15 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Function Test</t>
-  </si>
-  <si>
     <t>Integration Test</t>
   </si>
   <si>
-    <t>Unit test</t>
-  </si>
-  <si>
     <t>User Acceptance Test</t>
   </si>
   <si>
     <t>All Team</t>
   </si>
   <si>
-    <t>Not yet</t>
-  </si>
-  <si>
     <t>Kareem</t>
   </si>
   <si>
@@ -539,6 +503,33 @@
   </si>
   <si>
     <t>Tareek &amp; Yasser</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>Update SRS</t>
+  </si>
+  <si>
+    <t>Update RTM</t>
+  </si>
+  <si>
+    <t>Update HLD</t>
+  </si>
+  <si>
+    <t>Update CDDs</t>
+  </si>
+  <si>
+    <t>Update Test cases</t>
+  </si>
+  <si>
+    <t>Hoda</t>
+  </si>
+  <si>
+    <t>Function test</t>
+  </si>
+  <si>
+    <t>Component test</t>
   </si>
 </sst>
 </file>
@@ -1390,11 +1381,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <pane ySplit="8" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1403,23 +1394,21 @@
     <col min="2" max="2" width="35.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="5"/>
+    <col min="14" max="14" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1">
+    <row r="1" spans="1:16" ht="18.75" thickBot="1">
       <c r="A1" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="10"/>
@@ -1434,42 +1423,40 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="13"/>
-    </row>
-    <row r="2" spans="1:18" ht="12" thickBot="1">
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" ht="12.75">
+      <c r="O1" s="12"/>
+      <c r="P1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" ht="12" thickBot="1">
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" ht="12.75">
       <c r="B3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
       <c r="F3" s="53"/>
     </row>
-    <row r="4" spans="1:18" ht="12.75">
+    <row r="4" spans="1:16" ht="12.75">
       <c r="B4" s="46" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
       <c r="F4" s="50"/>
     </row>
-    <row r="5" spans="1:18" ht="12.75">
+    <row r="5" spans="1:16" ht="12.75">
       <c r="B5" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="49"/>
       <c r="E5" s="49"/>
@@ -1478,13 +1465,13 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:18" ht="13.5" thickBot="1">
+    <row r="6" spans="1:16" ht="13.5" thickBot="1">
       <c r="B6" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="54">
         <f ca="1">NOW()</f>
-        <v>42462.368804861107</v>
+        <v>42464.504895138889</v>
       </c>
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
@@ -1493,8 +1480,8 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:18" ht="12" thickBot="1"/>
-    <row r="8" spans="1:18" ht="23.25" customHeight="1" thickBot="1">
+    <row r="7" spans="1:16" ht="12" thickBot="1"/>
+    <row r="8" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
       <c r="A8" s="38" t="s">
         <v>1</v>
       </c>
@@ -1506,7 +1493,7 @@
       </c>
       <c r="D8" s="58"/>
       <c r="E8" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>9</v>
@@ -1528,26 +1515,22 @@
         <v>13</v>
       </c>
       <c r="M8" s="57"/>
-      <c r="N8" s="57" t="s">
+      <c r="N8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="57"/>
-      <c r="P8" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="8" customFormat="1" ht="15.75">
+      <c r="P8" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.75">
       <c r="A9" s="16">
         <v>0</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="17">
         <v>35</v>
@@ -1556,7 +1539,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="37">
         <v>42434</v>
@@ -1571,39 +1554,33 @@
         <v>0</v>
       </c>
       <c r="J9" s="17">
-        <v>10</v>
+        <f>J12+J18+J24+J32</f>
+        <v>68</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="17">
         <v>7</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="17">
-        <f>J9-L9</f>
-        <v>3</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="18">
-        <f>SUM(P12,P18,P24,P32)/4</f>
-        <v>0.70624999999999993</v>
-      </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="8" customFormat="1" ht="15.75">
+        <v>17</v>
+      </c>
+      <c r="N9" s="18">
+        <f>SUM(N12,N18,N24,N32)/4</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="O9" s="19"/>
+      <c r="P9" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="8" customFormat="1" ht="15.75">
       <c r="A10" s="16">
         <v>0</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="17">
         <v>28</v>
@@ -1612,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="37">
         <v>42441</v>
@@ -1630,30 +1607,23 @@
         <v>8</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="17">
         <v>5</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="17">
-        <f>J10-L10</f>
-        <v>3</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" s="18">
+        <v>17</v>
+      </c>
+      <c r="N10" s="18">
         <v>0.7</v>
       </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="8" customFormat="1" ht="15.75">
+      <c r="O10" s="19"/>
+      <c r="P10" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="8" customFormat="1" ht="15.75">
       <c r="A11" s="16"/>
       <c r="B11" s="24"/>
       <c r="C11" s="17"/>
@@ -1667,18 +1637,16 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="15"/>
-    </row>
-    <row r="12" spans="1:18" s="8" customFormat="1" ht="15">
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="15">
       <c r="A12" s="16">
         <v>1</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="17">
         <v>7</v>
@@ -1687,7 +1655,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="37">
         <v>42434</v>
@@ -1702,38 +1670,31 @@
         <v>42440</v>
       </c>
       <c r="J12" s="17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="17">
         <f>SUM(L13:L16)</f>
         <v>14</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="17">
-        <f t="shared" ref="N12:N22" si="0">J12-L12</f>
-        <v>-2</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" s="23">
-        <f>AVERAGE(P13:P16)</f>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="15"/>
-    </row>
-    <row r="13" spans="1:18" ht="15">
+        <v>17</v>
+      </c>
+      <c r="N12" s="18">
+        <f>AVERAGE(N13:N16)</f>
+        <v>1</v>
+      </c>
+      <c r="O12" s="19"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="1:16" ht="15">
       <c r="A13" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="17">
         <v>7</v>
@@ -1742,7 +1703,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="37">
         <v>42434</v>
@@ -1760,35 +1721,28 @@
         <v>4</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" s="17">
         <v>8</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="17">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15">
+        <v>17</v>
+      </c>
+      <c r="N13" s="18">
+        <v>1</v>
+      </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15">
       <c r="A14" s="16">
         <v>1.2</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="17">
         <v>7</v>
@@ -1797,7 +1751,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="37">
         <v>42434</v>
@@ -1815,35 +1769,28 @@
         <v>2</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="17">
         <v>2</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15">
+        <v>17</v>
+      </c>
+      <c r="N14" s="18">
+        <v>1</v>
+      </c>
+      <c r="O14" s="19"/>
+      <c r="P14" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15">
       <c r="A15" s="16">
         <v>1.3</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="17">
         <v>2</v>
@@ -1852,7 +1799,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="37">
         <v>42434</v>
@@ -1870,35 +1817,28 @@
         <v>2</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L15" s="17">
         <v>2</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15">
+        <v>17</v>
+      </c>
+      <c r="N15" s="18">
+        <v>1</v>
+      </c>
+      <c r="O15" s="19"/>
+      <c r="P15" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15">
       <c r="A16" s="16">
         <v>1.4</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="17">
         <v>2</v>
@@ -1907,7 +1847,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="37">
         <v>42434</v>
@@ -1925,30 +1865,23 @@
         <v>2</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="17">
         <v>2</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="34" customFormat="1" ht="15">
+        <v>17</v>
+      </c>
+      <c r="N16" s="18">
+        <v>1</v>
+      </c>
+      <c r="O16" s="19"/>
+      <c r="P16" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="34" customFormat="1" ht="15">
       <c r="A17" s="27"/>
       <c r="B17" s="28"/>
       <c r="C17" s="29"/>
@@ -1962,21 +1895,16 @@
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="29"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="33"/>
-    </row>
-    <row r="18" spans="1:18" s="8" customFormat="1" ht="15">
+      <c r="N17" s="31"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="33"/>
+    </row>
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="15">
       <c r="A18" s="16">
         <v>2</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="17">
         <v>7</v>
@@ -1996,44 +1924,38 @@
       <c r="H18" s="37">
         <v>42447</v>
       </c>
-      <c r="I18" s="37" t="s">
-        <v>0</v>
+      <c r="I18" s="37">
+        <f>I22</f>
+        <v>42461</v>
       </c>
       <c r="J18" s="17">
         <v>12</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="17">
         <f>SUM(L19:L22)</f>
         <v>16</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="17">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="O18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="18">
-        <f>AVERAGE(P19:P22)</f>
-        <v>0.92499999999999993</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>1</v>
-      </c>
-      <c r="R18" s="15"/>
-    </row>
-    <row r="19" spans="1:18" ht="15">
+        <v>17</v>
+      </c>
+      <c r="N18" s="18">
+        <f>AVERAGE(N19:N22)</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="19">
+        <v>1</v>
+      </c>
+      <c r="P18" s="15"/>
+    </row>
+    <row r="19" spans="1:16" ht="15">
       <c r="A19" s="16">
         <v>2.1</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="17">
         <v>2</v>
@@ -2042,7 +1964,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="37">
         <v>42441</v>
@@ -2060,35 +1982,28 @@
         <v>2</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L19" s="17">
         <v>4</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="17">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="O19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15">
+        <v>17</v>
+      </c>
+      <c r="N19" s="18">
+        <v>1</v>
+      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15">
       <c r="A20" s="16">
         <v>2.2000000000000002</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="17">
         <v>2</v>
@@ -2115,37 +2030,30 @@
         <v>4</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="17">
         <v>6</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="17">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="O20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="Q20" s="19">
+        <v>17</v>
+      </c>
+      <c r="N20" s="18">
+        <v>1</v>
+      </c>
+      <c r="O20" s="19">
         <v>2.1</v>
       </c>
-      <c r="R20" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15">
+      <c r="P20" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15">
       <c r="A21" s="16">
         <v>2.2999999999999998</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="17">
         <v>2</v>
@@ -2173,37 +2081,30 @@
         <v>4</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="17">
         <v>4</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="Q21" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="R21" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15">
+        <v>17</v>
+      </c>
+      <c r="N21" s="18">
+        <v>1</v>
+      </c>
+      <c r="O21" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15">
       <c r="A22" s="16">
         <v>2.4</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="17">
         <v>2</v>
@@ -2231,32 +2132,25 @@
         <v>2</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="17">
         <v>2</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P22" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="Q22" s="19">
+        <v>17</v>
+      </c>
+      <c r="N22" s="18">
+        <v>1</v>
+      </c>
+      <c r="O22" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R22" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="8" customFormat="1" ht="15">
+      <c r="P22" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="8" customFormat="1" ht="15">
       <c r="A23" s="16"/>
       <c r="B23" s="22"/>
       <c r="C23" s="17"/>
@@ -2270,18 +2164,16 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="15"/>
-    </row>
-    <row r="24" spans="1:18" s="8" customFormat="1" ht="15">
+      <c r="N23" s="18"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="15">
       <c r="A24" s="16">
         <v>3</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="17">
         <v>14</v>
@@ -2301,45 +2193,38 @@
       <c r="H24" s="37">
         <v>42461</v>
       </c>
-      <c r="I24" s="37" t="s">
-        <v>0</v>
+      <c r="I24" s="37">
+        <f>I26</f>
+        <v>42462</v>
       </c>
       <c r="J24" s="17">
-        <f>SUM(J25:J30)+2</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L24" s="17">
         <f>SUM(L25:L30)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" s="17">
-        <f t="shared" ref="N24:N36" si="1">J24-L24</f>
-        <v>3</v>
-      </c>
-      <c r="O24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="23">
-        <f>AVERAGE(P25:P30)</f>
-        <v>0.9</v>
-      </c>
-      <c r="Q24" s="19">
-        <v>2</v>
-      </c>
-      <c r="R24" s="15"/>
-    </row>
-    <row r="25" spans="1:18" ht="15">
+        <v>17</v>
+      </c>
+      <c r="N24" s="23">
+        <f>AVERAGE(N25:N30)</f>
+        <v>1</v>
+      </c>
+      <c r="O24" s="19">
+        <v>2</v>
+      </c>
+      <c r="P24" s="15"/>
+    </row>
+    <row r="25" spans="1:16" ht="15">
       <c r="A25" s="16">
         <v>3.1</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="17">
         <v>4</v>
@@ -2366,35 +2251,28 @@
         <v>4</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L25" s="17">
         <v>4</v>
       </c>
       <c r="M25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N25" s="17">
-        <f>J25-L25</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P25" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="15">
+        <v>17</v>
+      </c>
+      <c r="N25" s="18">
+        <v>1</v>
+      </c>
+      <c r="O25" s="19"/>
+      <c r="P25" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15">
       <c r="A26" s="16">
         <v>3.2</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="17">
         <v>4</v>
@@ -2423,37 +2301,30 @@
         <v>6</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L26" s="17">
         <v>6</v>
       </c>
       <c r="M26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" s="17">
-        <f t="shared" ref="N26:N30" si="2">J26-L26</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P26" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="Q26" s="19">
+        <v>17</v>
+      </c>
+      <c r="N26" s="18">
+        <v>1</v>
+      </c>
+      <c r="O26" s="19">
         <v>3.1</v>
       </c>
-      <c r="R26" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15">
+      <c r="P26" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15">
       <c r="A27" s="16">
         <v>3.3</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="17">
         <v>1</v>
@@ -2481,37 +2352,30 @@
         <v>2</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L27" s="17">
         <v>2</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N27" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P27" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="Q27" s="19">
+        <v>17</v>
+      </c>
+      <c r="N27" s="18">
+        <v>1</v>
+      </c>
+      <c r="O27" s="19">
         <v>3.2</v>
       </c>
-      <c r="R27" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15">
+      <c r="P27" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15">
       <c r="A28" s="16">
         <v>3.4</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="17">
         <v>2</v>
@@ -2539,37 +2403,30 @@
         <v>6</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L28" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N28" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P28" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="Q28" s="19">
+        <v>17</v>
+      </c>
+      <c r="N28" s="18">
+        <v>1</v>
+      </c>
+      <c r="O28" s="19">
         <v>3.2</v>
       </c>
-      <c r="R28" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15">
+      <c r="P28" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15">
       <c r="A29" s="16">
         <v>3.5</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="17">
         <v>1</v>
@@ -2597,37 +2454,30 @@
         <v>2</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L29" s="17">
         <v>2</v>
       </c>
       <c r="M29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N29" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P29" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="Q29" s="19">
+        <v>17</v>
+      </c>
+      <c r="N29" s="18">
+        <v>1</v>
+      </c>
+      <c r="O29" s="19">
         <v>3.4</v>
       </c>
-      <c r="R29" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="15">
+      <c r="P29" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15">
       <c r="A30" s="16">
         <v>3.6</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="17">
         <v>2</v>
@@ -2636,7 +2486,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F30" s="37">
         <v>42455</v>
@@ -2654,30 +2504,23 @@
         <v>2</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L30" s="17">
         <v>2</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N30" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P30" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="34" customFormat="1" ht="15">
+        <v>17</v>
+      </c>
+      <c r="N30" s="18">
+        <v>1</v>
+      </c>
+      <c r="O30" s="19"/>
+      <c r="P30" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="34" customFormat="1" ht="15">
       <c r="A31" s="27"/>
       <c r="B31" s="28"/>
       <c r="C31" s="29"/>
@@ -2691,18 +2534,16 @@
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="33"/>
-    </row>
-    <row r="32" spans="1:18" s="8" customFormat="1" ht="15">
+      <c r="N31" s="31"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="33"/>
+    </row>
+    <row r="32" spans="1:16" s="8" customFormat="1" ht="15">
       <c r="A32" s="16">
         <v>2</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="17">
         <v>7</v>
@@ -2711,16 +2552,16 @@
         <v>8</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F32" s="37">
         <v>42462</v>
       </c>
-      <c r="G32" s="37" t="s">
-        <v>0</v>
+      <c r="G32" s="37">
+        <v>42463</v>
       </c>
       <c r="H32" s="37">
-        <v>42468</v>
+        <v>42469</v>
       </c>
       <c r="I32" s="37" t="s">
         <v>0</v>
@@ -2729,34 +2570,28 @@
         <v>24</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L32" s="17">
-        <v>0</v>
+        <f>SUM(L33:L41)</f>
+        <v>7</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N32" s="17">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="O32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P32" s="18">
-        <f>AVERAGE(P33:P36)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="15"/>
-    </row>
-    <row r="33" spans="1:18" ht="15">
+        <v>17</v>
+      </c>
+      <c r="N32" s="18">
+        <f>AVERAGE(N35:N41)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="15"/>
+    </row>
+    <row r="33" spans="1:16" ht="15">
       <c r="A33" s="16">
         <v>2.1</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C33" s="17">
         <v>1</v>
@@ -2765,108 +2600,94 @@
         <v>8</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F33" s="37">
         <v>42462</v>
       </c>
-      <c r="G33" s="37" t="s">
-        <v>0</v>
+      <c r="G33" s="37">
+        <v>42463</v>
       </c>
       <c r="H33" s="37">
-        <v>42468</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>0</v>
+        <v>42463</v>
+      </c>
+      <c r="I33" s="37">
+        <v>42464</v>
       </c>
       <c r="J33" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L33" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N33" s="17">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="O33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P33" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="15">
+        <v>17</v>
+      </c>
+      <c r="N33" s="18">
+        <v>1</v>
+      </c>
+      <c r="O33" s="19"/>
+      <c r="P33" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15">
       <c r="A34" s="16">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C34" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F34" s="37">
         <v>42462</v>
       </c>
-      <c r="G34" s="37" t="s">
-        <v>0</v>
+      <c r="G34" s="37">
+        <v>42463</v>
       </c>
       <c r="H34" s="37">
-        <v>42468</v>
-      </c>
-      <c r="I34" s="37" t="s">
-        <v>0</v>
+        <v>42464</v>
+      </c>
+      <c r="I34" s="37">
+        <v>42464</v>
       </c>
       <c r="J34" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L34" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N34" s="17">
-        <f>J34-L34</f>
-        <v>4</v>
-      </c>
-      <c r="O34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P34" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15">
+        <v>17</v>
+      </c>
+      <c r="N34" s="18">
+        <v>1</v>
+      </c>
+      <c r="O34" s="19"/>
+      <c r="P34" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15">
       <c r="A35" s="16">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C35" s="17">
         <v>2</v>
@@ -2875,53 +2696,46 @@
         <v>8</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F35" s="37">
         <v>42462</v>
       </c>
-      <c r="G35" s="37" t="s">
-        <v>0</v>
+      <c r="G35" s="37">
+        <v>42463</v>
       </c>
       <c r="H35" s="37">
-        <v>42468</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>0</v>
+        <v>42464</v>
+      </c>
+      <c r="I35" s="37">
+        <v>42469</v>
       </c>
       <c r="J35" s="17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L35" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N35" s="17">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P35" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="15">
+        <v>17</v>
+      </c>
+      <c r="N35" s="18">
+        <v>1</v>
+      </c>
+      <c r="O35" s="19"/>
+      <c r="P35" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15">
       <c r="A36" s="16">
         <v>2.4</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C36" s="17">
         <v>2</v>
@@ -2930,73 +2744,304 @@
         <v>8</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F36" s="37">
+        <v>42463</v>
+      </c>
+      <c r="G36" s="37">
+        <v>42463</v>
+      </c>
+      <c r="H36" s="37">
+        <v>42465</v>
+      </c>
+      <c r="I36" s="37">
+        <v>42469</v>
+      </c>
+      <c r="J36" s="17">
+        <v>2</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="17">
+        <v>2</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="18">
+        <v>1</v>
+      </c>
+      <c r="O36" s="19"/>
+      <c r="P36" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15">
+      <c r="A37" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="17">
+        <v>1</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="37">
+        <v>42464</v>
+      </c>
+      <c r="G37" s="37">
+        <f>I33</f>
+        <v>42464</v>
+      </c>
+      <c r="H37" s="37">
+        <v>42465</v>
+      </c>
+      <c r="I37" s="37">
+        <v>42469</v>
+      </c>
+      <c r="J37" s="17">
+        <v>1</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="17">
+        <v>1</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="18">
+        <v>1</v>
+      </c>
+      <c r="O37" s="19"/>
+      <c r="P37" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15">
+      <c r="A38" s="16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="17">
+        <v>2</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="37">
         <v>42462</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G38" s="37">
+        <v>42469</v>
+      </c>
+      <c r="H38" s="37">
+        <v>42468</v>
+      </c>
+      <c r="I38" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="37">
+      <c r="J38" s="17">
+        <v>4</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="18">
+        <v>0</v>
+      </c>
+      <c r="O38" s="35"/>
+      <c r="P38" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15">
+      <c r="A39" s="16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="17">
+        <v>2</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="37">
+        <v>42462</v>
+      </c>
+      <c r="G39" s="37">
+        <v>42469</v>
+      </c>
+      <c r="H39" s="37">
         <v>42468</v>
       </c>
-      <c r="I36" s="37" t="s">
+      <c r="I39" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J39" s="17">
         <v>4</v>
       </c>
-      <c r="K36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="17">
+      <c r="K39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="17">
         <v>0</v>
       </c>
-      <c r="M36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" s="17">
-        <f t="shared" si="1"/>
+      <c r="M39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="18">
+        <v>0</v>
+      </c>
+      <c r="O39" s="35"/>
+      <c r="P39" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15">
+      <c r="A40" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="17">
+        <v>2</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="37">
+        <v>42462</v>
+      </c>
+      <c r="G40" s="37">
+        <v>42469</v>
+      </c>
+      <c r="H40" s="37">
+        <v>42468</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="17">
         <v>4</v>
       </c>
-      <c r="O36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P36" s="18">
+      <c r="K40" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="17">
         <v>0</v>
       </c>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="15"/>
+      <c r="M40" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="18">
+        <v>0</v>
+      </c>
+      <c r="O40" s="19"/>
+      <c r="P40" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15">
+      <c r="A41" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="17">
+        <v>2</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="37">
+        <v>42469</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="37">
+        <v>42469</v>
+      </c>
+      <c r="I41" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="17">
+        <v>4</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="18">
+        <v>0</v>
+      </c>
+      <c r="O41" s="19"/>
+      <c r="P41" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15">
+      <c r="A42" s="16"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="N8:O8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="C8:D8"/>

--- a/Project Plan/Project Schedule.xlsx
+++ b/Project Plan/Project Schedule.xlsx
@@ -536,9 +536,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
@@ -894,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -961,9 +960,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1385,7 +1381,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O40" sqref="O40"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1430,98 +1426,98 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="12.75">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:16" ht="12.75">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:16" ht="12.75">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:16" ht="13.5" thickBot="1">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="53">
         <f ca="1">NOW()</f>
-        <v>42464.504895138889</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
+        <v>42464.506036689818</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="12" thickBot="1"/>
     <row r="8" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A8" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="58" t="s">
+      <c r="A8" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="40" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="58" t="s">
+      <c r="J8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="57" t="s">
+      <c r="K8" s="57"/>
+      <c r="L8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="57"/>
-      <c r="N8" s="42" t="s">
+      <c r="M8" s="56"/>
+      <c r="N8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="43" t="s">
+      <c r="O8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="44" t="s">
+      <c r="P8" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1529,7 +1525,7 @@
       <c r="A9" s="16">
         <v>0</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="17">
@@ -1541,16 +1537,16 @@
       <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="36">
         <v>42434</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <v>42435</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <v>42470</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="36" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="17">
@@ -1561,7 +1557,8 @@
         <v>17</v>
       </c>
       <c r="L9" s="17">
-        <v>7</v>
+        <f>L12+L18+L24+L32</f>
+        <v>59</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>17</v>
@@ -1579,7 +1576,7 @@
       <c r="A10" s="16">
         <v>0</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="17">
@@ -1591,16 +1588,16 @@
       <c r="E10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="36">
         <v>42441</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="36">
         <v>42443</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <v>42447</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="36" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="17">
@@ -1625,14 +1622,14 @@
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" ht="15.75">
       <c r="A11" s="16"/>
-      <c r="B11" s="24"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -1645,7 +1642,7 @@
       <c r="A12" s="16">
         <v>1</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="17">
@@ -1657,16 +1654,16 @@
       <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="36">
         <v>42434</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="36">
         <v>42434</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="36">
         <v>42440</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="36">
         <v>42440</v>
       </c>
       <c r="J12" s="17">
@@ -1693,7 +1690,7 @@
       <c r="A13" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="17">
@@ -1705,16 +1702,16 @@
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="36">
         <v>42434</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="36">
         <v>42436</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="36">
         <v>42440</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="36">
         <v>42445</v>
       </c>
       <c r="J13" s="17">
@@ -1741,7 +1738,7 @@
       <c r="A14" s="16">
         <v>1.2</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="17">
@@ -1753,16 +1750,16 @@
       <c r="E14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="36">
         <v>42434</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="36">
         <v>42436</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="36">
         <v>42440</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="36">
         <v>42440</v>
       </c>
       <c r="J14" s="17">
@@ -1789,7 +1786,7 @@
       <c r="A15" s="16">
         <v>1.3</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="17">
@@ -1801,16 +1798,16 @@
       <c r="E15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <v>42434</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="36">
         <v>42437</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <v>42440</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="36">
         <v>42439</v>
       </c>
       <c r="J15" s="17">
@@ -1837,7 +1834,7 @@
       <c r="A16" s="16">
         <v>1.4</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="17">
@@ -1849,16 +1846,16 @@
       <c r="E16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="36">
         <v>42434</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="36">
         <v>42437</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="36">
         <v>42440</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="36">
         <v>42439</v>
       </c>
       <c r="J16" s="17">
@@ -1881,29 +1878,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="34" customFormat="1" ht="15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="33"/>
+    <row r="17" spans="1:16" s="33" customFormat="1" ht="15">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="32"/>
     </row>
     <row r="18" spans="1:16" s="8" customFormat="1" ht="15">
       <c r="A18" s="16">
         <v>2</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="17">
@@ -1915,16 +1912,16 @@
       <c r="E18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="36">
         <v>42441</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="36">
         <v>42441</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>42447</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="36">
         <f>I22</f>
         <v>42461</v>
       </c>
@@ -1954,7 +1951,7 @@
       <c r="A19" s="16">
         <v>2.1</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="17">
@@ -1966,16 +1963,16 @@
       <c r="E19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="36">
         <v>42441</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="36">
         <v>42441</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="36">
         <v>42443</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="36">
         <v>42445</v>
       </c>
       <c r="J19" s="17">
@@ -2002,7 +1999,7 @@
       <c r="A20" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="17">
@@ -2014,16 +2011,16 @@
       <c r="E20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="36">
         <v>42444</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="36">
         <v>42445</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="36">
         <v>42446</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="36">
         <v>42458</v>
       </c>
       <c r="J20" s="17">
@@ -2052,7 +2049,7 @@
       <c r="A21" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="17">
@@ -2064,16 +2061,16 @@
       <c r="E21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="36">
         <v>42444</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="36">
         <v>42445</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="36">
         <v>42446</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="36">
         <f>I20</f>
         <v>42458</v>
       </c>
@@ -2092,7 +2089,7 @@
       <c r="N21" s="18">
         <v>1</v>
       </c>
-      <c r="O21" s="35" t="s">
+      <c r="O21" s="34" t="s">
         <v>43</v>
       </c>
       <c r="P21" s="15" t="s">
@@ -2103,7 +2100,7 @@
       <c r="A22" s="16">
         <v>2.4</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="17">
@@ -2115,17 +2112,17 @@
       <c r="E22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="36">
         <v>42447</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="36">
         <f>I20</f>
         <v>42458</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="36">
         <v>42449</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="36">
         <v>42461</v>
       </c>
       <c r="J22" s="17">
@@ -2156,10 +2153,10 @@
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
@@ -2172,7 +2169,7 @@
       <c r="A24" s="16">
         <v>3</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="17">
@@ -2184,16 +2181,16 @@
       <c r="E24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="36">
         <v>42448</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="36">
         <v>42448</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <v>42461</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="36">
         <f>I26</f>
         <v>42462</v>
       </c>
@@ -2210,7 +2207,7 @@
       <c r="M24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="18">
         <f>AVERAGE(N25:N30)</f>
         <v>1</v>
       </c>
@@ -2223,7 +2220,7 @@
       <c r="A25" s="16">
         <v>3.1</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="17">
@@ -2235,16 +2232,16 @@
       <c r="E25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="36">
         <v>42448</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="36">
         <v>42451</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="36">
         <v>42452</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="36">
         <v>42453</v>
       </c>
       <c r="J25" s="17">
@@ -2271,7 +2268,7 @@
       <c r="A26" s="16">
         <v>3.2</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="17">
@@ -2283,18 +2280,18 @@
       <c r="E26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="36">
         <f>H25</f>
         <v>42452</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="36">
         <f>I25</f>
         <v>42453</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="36">
         <v>42456</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="36">
         <v>42462</v>
       </c>
       <c r="J26" s="17">
@@ -2323,7 +2320,7 @@
       <c r="A27" s="16">
         <v>3.3</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="17">
@@ -2335,17 +2332,17 @@
       <c r="E27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="36">
         <v>42456</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="36">
         <f>I26</f>
         <v>42462</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="36">
         <v>42456</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="36">
         <v>42461</v>
       </c>
       <c r="J27" s="17">
@@ -2374,7 +2371,7 @@
       <c r="A28" s="16">
         <v>3.4</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="17">
@@ -2386,17 +2383,17 @@
       <c r="E28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="36">
         <v>42456</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="36">
         <f>I25</f>
         <v>42453</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="36">
         <v>42458</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="36">
         <v>42461</v>
       </c>
       <c r="J28" s="17">
@@ -2425,7 +2422,7 @@
       <c r="A29" s="16">
         <v>3.5</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="17">
@@ -2437,17 +2434,17 @@
       <c r="E29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="36">
         <v>42458</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="36">
         <f>I28</f>
         <v>42461</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="36">
         <v>42458</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="36">
         <v>42462</v>
       </c>
       <c r="J29" s="17">
@@ -2476,7 +2473,7 @@
       <c r="A30" s="16">
         <v>3.6</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="17">
@@ -2485,19 +2482,19 @@
       <c r="D30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="36">
         <v>42455</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="36">
         <v>42455</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="36">
         <v>42455</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="36">
         <v>42455</v>
       </c>
       <c r="J30" s="17">
@@ -2520,29 +2517,29 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="34" customFormat="1" ht="15">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="33"/>
+    <row r="31" spans="1:16" s="33" customFormat="1" ht="15">
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" ht="15">
       <c r="A32" s="16">
         <v>2</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="25" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="17">
@@ -2551,19 +2548,19 @@
       <c r="D32" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="36">
         <v>42462</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="36">
         <v>42463</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="36">
         <v>42469</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="I32" s="36" t="s">
         <v>0</v>
       </c>
       <c r="J32" s="17">
@@ -2590,7 +2587,7 @@
       <c r="A33" s="16">
         <v>2.1</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="17">
@@ -2599,19 +2596,19 @@
       <c r="D33" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="36">
         <v>42462</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="36">
         <v>42463</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="36">
         <v>42463</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="36">
         <v>42464</v>
       </c>
       <c r="J33" s="17">
@@ -2638,7 +2635,7 @@
       <c r="A34" s="16">
         <v>2.1</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="17">
@@ -2647,19 +2644,19 @@
       <c r="D34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="36">
         <v>42462</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="36">
         <v>42463</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="36">
         <v>42464</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="36">
         <v>42464</v>
       </c>
       <c r="J34" s="17">
@@ -2686,7 +2683,7 @@
       <c r="A35" s="16">
         <v>2.1</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="24" t="s">
         <v>68</v>
       </c>
       <c r="C35" s="17">
@@ -2695,19 +2692,19 @@
       <c r="D35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="36">
         <v>42462</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="36">
         <v>42463</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="36">
         <v>42464</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="36">
         <v>42469</v>
       </c>
       <c r="J35" s="17">
@@ -2734,7 +2731,7 @@
       <c r="A36" s="16">
         <v>2.4</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="17">
@@ -2743,19 +2740,19 @@
       <c r="D36" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="36">
         <v>42463</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="36">
         <v>42463</v>
       </c>
-      <c r="H36" s="37">
+      <c r="H36" s="36">
         <v>42465</v>
       </c>
-      <c r="I36" s="37">
+      <c r="I36" s="36">
         <v>42469</v>
       </c>
       <c r="J36" s="17">
@@ -2782,7 +2779,7 @@
       <c r="A37" s="16">
         <v>2.1</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="17">
@@ -2791,20 +2788,20 @@
       <c r="D37" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="36">
         <v>42464</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G37" s="36">
         <f>I33</f>
         <v>42464</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H37" s="36">
         <v>42465</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="36">
         <v>42469</v>
       </c>
       <c r="J37" s="17">
@@ -2831,7 +2828,7 @@
       <c r="A38" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="17">
@@ -2840,19 +2837,19 @@
       <c r="D38" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="36">
         <v>42462</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="36">
         <v>42469</v>
       </c>
-      <c r="H38" s="37">
+      <c r="H38" s="36">
         <v>42468</v>
       </c>
-      <c r="I38" s="37" t="s">
+      <c r="I38" s="36" t="s">
         <v>0</v>
       </c>
       <c r="J38" s="17">
@@ -2870,7 +2867,7 @@
       <c r="N38" s="18">
         <v>0</v>
       </c>
-      <c r="O38" s="35"/>
+      <c r="O38" s="34"/>
       <c r="P38" s="15" t="s">
         <v>55</v>
       </c>
@@ -2879,7 +2876,7 @@
       <c r="A39" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>72</v>
       </c>
       <c r="C39" s="17">
@@ -2888,19 +2885,19 @@
       <c r="D39" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="36">
         <v>42462</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="36">
         <v>42469</v>
       </c>
-      <c r="H39" s="37">
+      <c r="H39" s="36">
         <v>42468</v>
       </c>
-      <c r="I39" s="37" t="s">
+      <c r="I39" s="36" t="s">
         <v>0</v>
       </c>
       <c r="J39" s="17">
@@ -2918,7 +2915,7 @@
       <c r="N39" s="18">
         <v>0</v>
       </c>
-      <c r="O39" s="35"/>
+      <c r="O39" s="34"/>
       <c r="P39" s="15" t="s">
         <v>55</v>
       </c>
@@ -2927,7 +2924,7 @@
       <c r="A40" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="17">
@@ -2936,19 +2933,19 @@
       <c r="D40" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="36">
         <v>42462</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="36">
         <v>42469</v>
       </c>
-      <c r="H40" s="37">
+      <c r="H40" s="36">
         <v>42468</v>
       </c>
-      <c r="I40" s="37" t="s">
+      <c r="I40" s="36" t="s">
         <v>0</v>
       </c>
       <c r="J40" s="17">
@@ -2975,7 +2972,7 @@
       <c r="A41" s="16">
         <v>2.4</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="24" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="17">
@@ -2984,19 +2981,19 @@
       <c r="D41" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="36">
         <v>42469</v>
       </c>
-      <c r="G41" s="37" t="s">
+      <c r="G41" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="37">
+      <c r="H41" s="36">
         <v>42469</v>
       </c>
-      <c r="I41" s="37" t="s">
+      <c r="I41" s="36" t="s">
         <v>0</v>
       </c>
       <c r="J41" s="17">
@@ -3021,7 +3018,7 @@
     </row>
     <row r="42" spans="1:16" ht="15">
       <c r="A42" s="16"/>
-      <c r="B42" s="28"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="9"/>

--- a/Project Plan/Project Schedule.xlsx
+++ b/Project Plan/Project Schedule.xlsx
@@ -536,8 +536,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
@@ -893,7 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -960,6 +961,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1380,8 +1384,8 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1426,98 +1430,98 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="12.75">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:16" ht="12.75">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:16" ht="12.75">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:16" ht="13.5" thickBot="1">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="54">
         <f ca="1">NOW()</f>
-        <v>42464.506036689818</v>
-      </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
+        <v>42467.520727777781</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="12" thickBot="1"/>
     <row r="8" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A8" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="57" t="s">
+      <c r="A8" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="39" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="56" t="s">
+      <c r="K8" s="58"/>
+      <c r="L8" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="56"/>
-      <c r="N8" s="41" t="s">
+      <c r="M8" s="57"/>
+      <c r="N8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="43" t="s">
+      <c r="P8" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1525,7 +1529,7 @@
       <c r="A9" s="16">
         <v>0</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="17">
@@ -1537,16 +1541,16 @@
       <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="37">
         <v>42434</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="37">
         <v>42435</v>
       </c>
-      <c r="H9" s="36">
-        <v>42470</v>
-      </c>
-      <c r="I9" s="36" t="s">
+      <c r="H9" s="37">
+        <v>42469</v>
+      </c>
+      <c r="I9" s="37" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="17">
@@ -1576,7 +1580,7 @@
       <c r="A10" s="16">
         <v>0</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="17">
@@ -1588,16 +1592,16 @@
       <c r="E10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="37">
         <v>42441</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="37">
         <v>42443</v>
       </c>
-      <c r="H10" s="36">
-        <v>42447</v>
-      </c>
-      <c r="I10" s="36" t="s">
+      <c r="H10" s="37">
+        <v>42469</v>
+      </c>
+      <c r="I10" s="37" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="17">
@@ -1622,14 +1626,14 @@
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" ht="15.75">
       <c r="A11" s="16"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -1642,7 +1646,7 @@
       <c r="A12" s="16">
         <v>1</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="17">
@@ -1654,16 +1658,16 @@
       <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="37">
         <v>42434</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="37">
         <v>42434</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="37">
         <v>42440</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="37">
         <v>42440</v>
       </c>
       <c r="J12" s="17">
@@ -1690,7 +1694,7 @@
       <c r="A13" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="17">
@@ -1702,16 +1706,16 @@
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="37">
         <v>42434</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="37">
         <v>42436</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="37">
         <v>42440</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="37">
         <v>42445</v>
       </c>
       <c r="J13" s="17">
@@ -1738,7 +1742,7 @@
       <c r="A14" s="16">
         <v>1.2</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="17">
@@ -1750,16 +1754,16 @@
       <c r="E14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="37">
         <v>42434</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="37">
         <v>42436</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="37">
         <v>42440</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="37">
         <v>42440</v>
       </c>
       <c r="J14" s="17">
@@ -1786,7 +1790,7 @@
       <c r="A15" s="16">
         <v>1.3</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="17">
@@ -1798,16 +1802,16 @@
       <c r="E15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="37">
         <v>42434</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="37">
         <v>42437</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="37">
         <v>42440</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="37">
         <v>42439</v>
       </c>
       <c r="J15" s="17">
@@ -1834,7 +1838,7 @@
       <c r="A16" s="16">
         <v>1.4</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="17">
@@ -1846,16 +1850,16 @@
       <c r="E16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="37">
         <v>42434</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="37">
         <v>42437</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="37">
         <v>42440</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="37">
         <v>42439</v>
       </c>
       <c r="J16" s="17">
@@ -1878,29 +1882,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="33" customFormat="1" ht="15">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="32"/>
+    <row r="17" spans="1:16" s="34" customFormat="1" ht="15">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="33"/>
     </row>
     <row r="18" spans="1:16" s="8" customFormat="1" ht="15">
       <c r="A18" s="16">
         <v>2</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="17">
@@ -1912,16 +1916,16 @@
       <c r="E18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="37">
         <v>42441</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="37">
         <v>42441</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="37">
         <v>42447</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="37">
         <f>I22</f>
         <v>42461</v>
       </c>
@@ -1951,7 +1955,7 @@
       <c r="A19" s="16">
         <v>2.1</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="17">
@@ -1963,16 +1967,16 @@
       <c r="E19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="37">
         <v>42441</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="37">
         <v>42441</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="37">
         <v>42443</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="37">
         <v>42445</v>
       </c>
       <c r="J19" s="17">
@@ -1999,7 +2003,7 @@
       <c r="A20" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="17">
@@ -2011,16 +2015,16 @@
       <c r="E20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="37">
         <v>42444</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="37">
         <v>42445</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="37">
         <v>42446</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="37">
         <v>42458</v>
       </c>
       <c r="J20" s="17">
@@ -2049,7 +2053,7 @@
       <c r="A21" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="17">
@@ -2061,16 +2065,16 @@
       <c r="E21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="37">
         <v>42444</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="37">
         <v>42445</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="37">
         <v>42446</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="37">
         <f>I20</f>
         <v>42458</v>
       </c>
@@ -2089,7 +2093,7 @@
       <c r="N21" s="18">
         <v>1</v>
       </c>
-      <c r="O21" s="34" t="s">
+      <c r="O21" s="35" t="s">
         <v>43</v>
       </c>
       <c r="P21" s="15" t="s">
@@ -2100,7 +2104,7 @@
       <c r="A22" s="16">
         <v>2.4</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="17">
@@ -2112,17 +2116,17 @@
       <c r="E22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="37">
         <v>42447</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="37">
         <f>I20</f>
         <v>42458</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="37">
         <v>42449</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="37">
         <v>42461</v>
       </c>
       <c r="J22" s="17">
@@ -2153,10 +2157,10 @@
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
@@ -2169,7 +2173,7 @@
       <c r="A24" s="16">
         <v>3</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="26" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="17">
@@ -2181,16 +2185,16 @@
       <c r="E24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="37">
         <v>42448</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="37">
         <v>42448</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="37">
         <v>42461</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="37">
         <f>I26</f>
         <v>42462</v>
       </c>
@@ -2207,7 +2211,7 @@
       <c r="M24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="23">
         <f>AVERAGE(N25:N30)</f>
         <v>1</v>
       </c>
@@ -2220,7 +2224,7 @@
       <c r="A25" s="16">
         <v>3.1</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="17">
@@ -2232,16 +2236,16 @@
       <c r="E25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="37">
         <v>42448</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="37">
         <v>42451</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="37">
         <v>42452</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="37">
         <v>42453</v>
       </c>
       <c r="J25" s="17">
@@ -2268,7 +2272,7 @@
       <c r="A26" s="16">
         <v>3.2</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="17">
@@ -2280,18 +2284,18 @@
       <c r="E26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="37">
         <f>H25</f>
         <v>42452</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="37">
         <f>I25</f>
         <v>42453</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="37">
         <v>42456</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="37">
         <v>42462</v>
       </c>
       <c r="J26" s="17">
@@ -2320,7 +2324,7 @@
       <c r="A27" s="16">
         <v>3.3</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="25" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="17">
@@ -2332,17 +2336,17 @@
       <c r="E27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="37">
         <v>42456</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="37">
         <f>I26</f>
         <v>42462</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="37">
         <v>42456</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="37">
         <v>42461</v>
       </c>
       <c r="J27" s="17">
@@ -2371,7 +2375,7 @@
       <c r="A28" s="16">
         <v>3.4</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="17">
@@ -2383,17 +2387,17 @@
       <c r="E28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="37">
         <v>42456</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="37">
         <f>I25</f>
         <v>42453</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="37">
         <v>42458</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="37">
         <v>42461</v>
       </c>
       <c r="J28" s="17">
@@ -2422,7 +2426,7 @@
       <c r="A29" s="16">
         <v>3.5</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="25" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="17">
@@ -2434,17 +2438,17 @@
       <c r="E29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="37">
         <v>42458</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="37">
         <f>I28</f>
         <v>42461</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="37">
         <v>42458</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="37">
         <v>42462</v>
       </c>
       <c r="J29" s="17">
@@ -2473,7 +2477,7 @@
       <c r="A30" s="16">
         <v>3.6</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="17">
@@ -2482,19 +2486,19 @@
       <c r="D30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="37">
         <v>42455</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="37">
         <v>42455</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="37">
         <v>42455</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="37">
         <v>42455</v>
       </c>
       <c r="J30" s="17">
@@ -2517,29 +2521,29 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="33" customFormat="1" ht="15">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="32"/>
+    <row r="31" spans="1:16" s="34" customFormat="1" ht="15">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="33"/>
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" ht="15">
       <c r="A32" s="16">
         <v>2</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="26" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="17">
@@ -2548,19 +2552,19 @@
       <c r="D32" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="37">
         <v>42462</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="37">
         <v>42463</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="37">
         <v>42469</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="I32" s="37" t="s">
         <v>0</v>
       </c>
       <c r="J32" s="17">
@@ -2587,7 +2591,7 @@
       <c r="A33" s="16">
         <v>2.1</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="17">
@@ -2596,19 +2600,19 @@
       <c r="D33" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="37">
         <v>42462</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="37">
         <v>42463</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="37">
         <v>42463</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="37">
         <v>42464</v>
       </c>
       <c r="J33" s="17">
@@ -2635,7 +2639,7 @@
       <c r="A34" s="16">
         <v>2.1</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="25" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="17">
@@ -2644,19 +2648,19 @@
       <c r="D34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="37">
         <v>42462</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="37">
         <v>42463</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="37">
         <v>42464</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="37">
         <v>42464</v>
       </c>
       <c r="J34" s="17">
@@ -2683,7 +2687,7 @@
       <c r="A35" s="16">
         <v>2.1</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C35" s="17">
@@ -2692,20 +2696,20 @@
       <c r="D35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="37">
         <v>42462</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="37">
         <v>42463</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="37">
         <v>42464</v>
       </c>
-      <c r="I35" s="36">
-        <v>42469</v>
+      <c r="I35" s="37">
+        <v>42467</v>
       </c>
       <c r="J35" s="17">
         <v>2</v>
@@ -2731,7 +2735,7 @@
       <c r="A36" s="16">
         <v>2.4</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="25" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="17">
@@ -2740,20 +2744,20 @@
       <c r="D36" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="37">
         <v>42463</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="37">
         <v>42463</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="37">
         <v>42465</v>
       </c>
-      <c r="I36" s="36">
-        <v>42469</v>
+      <c r="I36" s="37">
+        <v>42467</v>
       </c>
       <c r="J36" s="17">
         <v>2</v>
@@ -2779,7 +2783,7 @@
       <c r="A37" s="16">
         <v>2.1</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="25" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="17">
@@ -2788,21 +2792,21 @@
       <c r="D37" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="37">
         <v>42464</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="37">
         <f>I33</f>
         <v>42464</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="37">
         <v>42465</v>
       </c>
-      <c r="I37" s="36">
-        <v>42469</v>
+      <c r="I37" s="37">
+        <v>42467</v>
       </c>
       <c r="J37" s="17">
         <v>1</v>
@@ -2828,7 +2832,7 @@
       <c r="A38" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="17">
@@ -2837,19 +2841,19 @@
       <c r="D38" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="37">
         <v>42462</v>
       </c>
-      <c r="G38" s="36">
-        <v>42469</v>
-      </c>
-      <c r="H38" s="36">
+      <c r="G38" s="37">
+        <v>42467</v>
+      </c>
+      <c r="H38" s="37">
         <v>42468</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="I38" s="37" t="s">
         <v>0</v>
       </c>
       <c r="J38" s="17">
@@ -2867,7 +2871,7 @@
       <c r="N38" s="18">
         <v>0</v>
       </c>
-      <c r="O38" s="34"/>
+      <c r="O38" s="35"/>
       <c r="P38" s="15" t="s">
         <v>55</v>
       </c>
@@ -2876,7 +2880,7 @@
       <c r="A39" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="25" t="s">
         <v>72</v>
       </c>
       <c r="C39" s="17">
@@ -2885,19 +2889,19 @@
       <c r="D39" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="37">
         <v>42462</v>
       </c>
-      <c r="G39" s="36">
-        <v>42469</v>
-      </c>
-      <c r="H39" s="36">
+      <c r="G39" s="37">
+        <v>42467</v>
+      </c>
+      <c r="H39" s="37">
         <v>42468</v>
       </c>
-      <c r="I39" s="36" t="s">
+      <c r="I39" s="37" t="s">
         <v>0</v>
       </c>
       <c r="J39" s="17">
@@ -2915,7 +2919,7 @@
       <c r="N39" s="18">
         <v>0</v>
       </c>
-      <c r="O39" s="34"/>
+      <c r="O39" s="35"/>
       <c r="P39" s="15" t="s">
         <v>55</v>
       </c>
@@ -2924,7 +2928,7 @@
       <c r="A40" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="17">
@@ -2933,19 +2937,19 @@
       <c r="D40" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="37">
         <v>42462</v>
       </c>
-      <c r="G40" s="36">
-        <v>42469</v>
-      </c>
-      <c r="H40" s="36">
+      <c r="G40" s="37">
+        <v>42467</v>
+      </c>
+      <c r="H40" s="37">
         <v>42468</v>
       </c>
-      <c r="I40" s="36" t="s">
+      <c r="I40" s="37" t="s">
         <v>0</v>
       </c>
       <c r="J40" s="17">
@@ -2972,7 +2976,7 @@
       <c r="A41" s="16">
         <v>2.4</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="17">
@@ -2981,19 +2985,19 @@
       <c r="D41" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="37">
         <v>42469</v>
       </c>
-      <c r="G41" s="36" t="s">
+      <c r="G41" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="36">
+      <c r="H41" s="37">
         <v>42469</v>
       </c>
-      <c r="I41" s="36" t="s">
+      <c r="I41" s="37" t="s">
         <v>0</v>
       </c>
       <c r="J41" s="17">
@@ -3018,7 +3022,7 @@
     </row>
     <row r="42" spans="1:16" ht="15">
       <c r="A42" s="16"/>
-      <c r="B42" s="27"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="9"/>

--- a/Project Plan/Project Schedule.xlsx
+++ b/Project Plan/Project Schedule.xlsx
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="74">
   <si>
     <t>NA</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>Component test</t>
+  </si>
+  <si>
+    <t>4.1, 4.3, 4.4</t>
   </si>
 </sst>
 </file>
@@ -1384,8 +1387,8 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="8" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1471,7 +1474,7 @@
       </c>
       <c r="C6" s="54">
         <f ca="1">NOW()</f>
-        <v>42467.520727777781</v>
+        <v>42467.874289236112</v>
       </c>
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
@@ -1562,14 +1565,14 @@
       </c>
       <c r="L9" s="17">
         <f>L12+L18+L24+L32</f>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="N9" s="18">
         <f>SUM(N12,N18,N24,N32)/4</f>
-        <v>0.8571428571428571</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="15" t="s">
@@ -2541,7 +2544,7 @@
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" ht="15">
       <c r="A32" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B32" s="26" t="s">
         <v>52</v>
@@ -2575,21 +2578,21 @@
       </c>
       <c r="L32" s="17">
         <f>SUM(L33:L41)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M32" s="17" t="s">
         <v>17</v>
       </c>
       <c r="N32" s="18">
         <f>AVERAGE(N35:N41)</f>
-        <v>0.42857142857142855</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="O32" s="19"/>
       <c r="P32" s="15"/>
     </row>
     <row r="33" spans="1:16" ht="15">
       <c r="A33" s="16">
-        <v>2.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>65</v>
@@ -2637,7 +2640,7 @@
     </row>
     <row r="34" spans="1:16" ht="15">
       <c r="A34" s="16">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>67</v>
@@ -2685,7 +2688,7 @@
     </row>
     <row r="35" spans="1:16" ht="15">
       <c r="A35" s="16">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>68</v>
@@ -2733,7 +2736,7 @@
     </row>
     <row r="36" spans="1:16" ht="15">
       <c r="A36" s="16">
-        <v>2.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>69</v>
@@ -2774,14 +2777,13 @@
       <c r="N36" s="18">
         <v>1</v>
       </c>
-      <c r="O36" s="19"/>
       <c r="P36" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15">
       <c r="A37" s="16">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>66</v>
@@ -2793,7 +2795,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F37" s="37">
         <v>42464</v>
@@ -2823,14 +2825,16 @@
       <c r="N37" s="18">
         <v>1</v>
       </c>
-      <c r="O37" s="19"/>
+      <c r="O37" s="19" t="s">
+        <v>73</v>
+      </c>
       <c r="P37" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15">
       <c r="A38" s="16">
-        <v>2.2999999999999998</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>71</v>
@@ -2842,7 +2846,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F38" s="37">
         <v>42462</v>
@@ -2853,8 +2857,8 @@
       <c r="H38" s="37">
         <v>42468</v>
       </c>
-      <c r="I38" s="37" t="s">
-        <v>0</v>
+      <c r="I38" s="37">
+        <v>42467</v>
       </c>
       <c r="J38" s="17">
         <v>4</v>
@@ -2863,22 +2867,24 @@
         <v>17</v>
       </c>
       <c r="L38" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M38" s="17" t="s">
         <v>17</v>
       </c>
       <c r="N38" s="18">
-        <v>0</v>
-      </c>
-      <c r="O38" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="35">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="P38" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15">
       <c r="A39" s="16">
-        <v>2.2999999999999998</v>
+        <v>4.7</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>72</v>
@@ -2890,7 +2896,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F39" s="37">
         <v>42462</v>
@@ -2901,8 +2907,8 @@
       <c r="H39" s="37">
         <v>42468</v>
       </c>
-      <c r="I39" s="37" t="s">
-        <v>0</v>
+      <c r="I39" s="37">
+        <v>42467</v>
       </c>
       <c r="J39" s="17">
         <v>4</v>
@@ -2911,22 +2917,24 @@
         <v>17</v>
       </c>
       <c r="L39" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M39" s="17" t="s">
         <v>17</v>
       </c>
       <c r="N39" s="18">
-        <v>0</v>
-      </c>
-      <c r="O39" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="O39" s="35">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="P39" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15">
       <c r="A40" s="16">
-        <v>2.2000000000000002</v>
+        <v>4.8</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>53</v>
@@ -2967,20 +2975,22 @@
       <c r="N40" s="18">
         <v>0</v>
       </c>
-      <c r="O40" s="19"/>
+      <c r="O40" s="19">
+        <v>4.7</v>
+      </c>
       <c r="P40" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15">
       <c r="A41" s="16">
-        <v>2.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>8</v>

--- a/Project Plan/Project Schedule.xlsx
+++ b/Project Plan/Project Schedule.xlsx
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
   <si>
     <t>NA</t>
   </si>
@@ -1387,8 +1387,8 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <pane ySplit="8" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="C6" s="54">
         <f ca="1">NOW()</f>
-        <v>42467.874289236112</v>
+        <v>42468.891811458336</v>
       </c>
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
@@ -1557,22 +1557,22 @@
         <v>0</v>
       </c>
       <c r="J9" s="17">
-        <f>J12+J18+J24+J32</f>
-        <v>68</v>
+        <f>J10+J12+J18+J24+J32</f>
+        <v>70</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="17">
-        <f>L12+L18+L24+L32</f>
-        <v>67</v>
+        <f>L10+L12+L18+L24+L32</f>
+        <v>73</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="N9" s="18">
         <f>SUM(N12,N18,N24,N32)/4</f>
-        <v>0.9285714285714286</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="15" t="s">
@@ -1608,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10" s="17" t="s">
         <v>17</v>
       </c>
       <c r="N10" s="18">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="15" t="s">
@@ -2578,14 +2578,14 @@
       </c>
       <c r="L32" s="17">
         <f>SUM(L33:L41)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M32" s="17" t="s">
         <v>17</v>
       </c>
       <c r="N32" s="18">
         <f>AVERAGE(N35:N41)</f>
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O32" s="19"/>
       <c r="P32" s="15"/>
@@ -2664,7 +2664,7 @@
         <v>42464</v>
       </c>
       <c r="I34" s="37">
-        <v>42464</v>
+        <v>42465</v>
       </c>
       <c r="J34" s="17">
         <v>1</v>
@@ -2712,7 +2712,7 @@
         <v>42464</v>
       </c>
       <c r="I35" s="37">
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="J35" s="17">
         <v>2</v>
@@ -2760,7 +2760,7 @@
         <v>42465</v>
       </c>
       <c r="I36" s="37">
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="J36" s="17">
         <v>2</v>
@@ -2808,7 +2808,7 @@
         <v>42465</v>
       </c>
       <c r="I37" s="37">
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="J37" s="17">
         <v>1</v>
@@ -2858,7 +2858,7 @@
         <v>42468</v>
       </c>
       <c r="I38" s="37">
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="J38" s="17">
         <v>4</v>
@@ -2908,7 +2908,7 @@
         <v>42468</v>
       </c>
       <c r="I39" s="37">
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="J39" s="17">
         <v>4</v>
@@ -2946,7 +2946,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F40" s="37">
         <v>42462</v>
@@ -2957,8 +2957,8 @@
       <c r="H40" s="37">
         <v>42468</v>
       </c>
-      <c r="I40" s="37" t="s">
-        <v>0</v>
+      <c r="I40" s="37">
+        <v>42468</v>
       </c>
       <c r="J40" s="17">
         <v>4</v>
@@ -2967,13 +2967,13 @@
         <v>17</v>
       </c>
       <c r="L40" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M40" s="17" t="s">
         <v>17</v>
       </c>
       <c r="N40" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="19">
         <v>4.7</v>
@@ -3001,8 +3001,8 @@
       <c r="F41" s="37">
         <v>42469</v>
       </c>
-      <c r="G41" s="37" t="s">
-        <v>0</v>
+      <c r="G41" s="37">
+        <v>42469</v>
       </c>
       <c r="H41" s="37">
         <v>42469</v>
